--- a/salidas/reporte.xlsx
+++ b/salidas/reporte.xlsx
@@ -11,15 +11,15 @@
     <sheet name="ResumenNumerico" sheetId="2" r:id="rId2"/>
     <sheet name="VentasPorMes" sheetId="3" r:id="rId3"/>
     <sheet name="ConvMensualAsesor" sheetId="4" r:id="rId4"/>
-    <sheet name="VentasMesCiudad" sheetId="5" r:id="rId5"/>
-    <sheet name="TicketPromedioMes" sheetId="6" r:id="rId6"/>
+    <sheet name="Ventas mensuales por ciudad" sheetId="5" r:id="rId5"/>
+    <sheet name="Ventas promedio por visitas" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="45">
   <si>
     <t>variable</t>
   </si>
@@ -138,6 +138,12 @@
     <t>Asesor_C</t>
   </si>
   <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Mes_nombre</t>
+  </si>
+  <si>
     <t>Bogotá</t>
   </si>
   <si>
@@ -147,7 +153,7 @@
     <t>Medellín</t>
   </si>
   <si>
-    <t>ticket_promedio_por_visita</t>
+    <t>Ventas promedio por visitas</t>
   </si>
 </sst>
 </file>
@@ -1111,192 +1117,231 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>1752700</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1563798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1633681</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>1539613</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1751577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>1752700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3">
-        <v>1539613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4">
-        <v>1996368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>1937264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>1633681</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>28</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7">
         <v>1831289</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>1996368</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1716505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="D8">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>2179875</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>1937264</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1703401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="D9">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>1707555</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>1563798</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>1751577</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12">
-        <v>1716505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13">
-        <v>1703401</v>
+      <c r="E13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1365,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
